--- a/BrowserCrawling/news.xlsx
+++ b/BrowserCrawling/news.xlsx
@@ -463,540 +463,540 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[단독]"너무 비싸네"…MBK, CJ제일제당 바이오사업부 입찰 불참</t>
+          <t>"D-1"…상·하방으로 최대 10% 변동성 '경고'</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CJ제일제당 그린바이오 사업부 매각 입찰에 유력후보였던 MBK파트너스가 최종 불참했다. 예상 인수가격이 너무 비싸다고 판단한 것으로 보.. 아시아경제 | 2025-02-13 21:47:12</t>
+          <t>엔비디아의 실적 발표가 하루 앞으로 다가온 가운데 월가에서도 주가 변동성을 둘러싼 경고음이 커지고 있다. 25일(현지시간) CNBC는 .. 한국경제TV | 2025-02-26 10:07:47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>아시아경제</t>
+          <t>한국경제TV</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-02-13 21:47:12</t>
+          <t>2025-02-26 10:07:47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005546405</t>
+          <t>https://n.news.naver.com/mnews/article/215/0001199887</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>러시아, 증시·루블화 급등…우크라이나전 종식 기대감</t>
+          <t>올해만 27% 올랐다…"2차전지와 반도체 부활 신호탄"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>러시아·우크라이나 종전 기대감이 커지면서 러시아 증시와 루블화 가치가 급등했다. 도널드 트럼프 미국 대통령과 블라디미르 푸틴 러시아 대.. 이데일리 | 2025-02-13 20:57:08</t>
+          <t>삼성액티브자산운용의 'KoAct 테크핵심소재공급망액티브 ETF'가 차세대 2차전지 및 반도체 소재 시장의 성장 가능성에 힘입어 올해 들.. 한국경제TV | 2025-02-26 10:05:05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>이데일리</t>
+          <t>한국경제TV</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-02-13 20:57:08</t>
+          <t>2025-02-26 10:05:05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005943471</t>
+          <t>https://n.news.naver.com/mnews/article/215/0001199886</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>자동차 업계도 '거거익선'…이제는 대형차 시대</t>
+          <t>현대건설, '교량 붕괴 사고' 하루 만에 주가 반등 [핫종목]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>크면 클수록 좋다는 뜻의 신조어 '거거익선', 가전업계에서 많이 쓰는 용어인데 국내 자동차 업계에도 확산하고 있습니다. 넓은 실내 공간.. MBN | 2025-02-13 20:06:07</t>
+          <t>박현영 현대건설(000720) 주가가 서울세종고속도로 천안-안성구간 교량 붕괴 사고가 일어난 지 하루 만에 반등했다. 26일 오전 9시.. 뉴스1 | 2025-02-26 10:03:25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MBN</t>
+          <t>뉴스1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-02-13 20:06:07</t>
+          <t>2025-02-26 10:03:25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001871627</t>
+          <t>https://n.news.naver.com/mnews/article/421/0008098391</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>“잠자던 중학개미들 깨어났다”…딥시크 열풍 타고 중국 주식 얼마나 샀나 보니</t>
+          <t>金 투자하면서 월배당… 신한운용, 금 커버드콜 ETF 내놓는다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15개월만에 순매수 전환 이달 中주식 473만弗 ‘사자’ AI·로봇관련주 대거 사들여 생성형 인공지능(AI) 딥시크의 등장 이후 중국 .. 매일경제 | 2025-02-13 19:52:12</t>
+          <t>신한운용, 다음달 ‘SOL 골드커버드콜액티브’ 상장 국제 금 현물 추종… 연 4% 분배금 지급 목표 신한자산운용이 업계 최초로 금 투자.. 조선비즈 | 2025-02-26 10:01:10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>조선비즈</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-02-13 19:52:12</t>
+          <t>2025-02-26 10:01:10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005443558</t>
+          <t>https://n.news.naver.com/mnews/article/366/0001056781</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>‘SG발 주가조작’ 주범 라덕연 징역 25년…“유례 없는 대규모 시세조종”</t>
+          <t>업비트 제재에 놀란 투자자들…뚜껑 열어보니 “정상 영업중"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>소시에테제네랄(SG)증권발 주가 폭락 사태의 주범 라덕연(43)씨가 징역 25년을 선고 받았다. 서울남부지법 형사합의11부는 13일 자.. 데일리안 | 2025-02-13 19:38:09</t>
+          <t>국내 1위 가상자산 거래소 업비트가 금융위원회 산하 금융정보분석원(FIU)으로부터 제재를 받는다. 제재 내용에는 영업 일부정지 3개월이.. 아시아경제 | 2025-02-26 09:56:29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>데일리안</t>
+          <t>아시아경제</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-02-13 19:38:09</t>
+          <t>2025-02-26 09:56:29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002923155</t>
+          <t>https://n.news.naver.com/mnews/article/277/0005552176</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>중국서 울상 된 애플…알리바바 AI에 ‘러브콜’</t>
+          <t>美증시 휘청하자… 서학개미 ‘집단지성’ ETF 손실 구간 진입</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>애플이 중국에서 인공지능(AI) 기능을 탑재한 아이폰을 내놓기 위해 알리바바와 제휴할 것이라는 보도가 나왔다. 13일 로이터와 블룸버그.. 이코노미스트 | 2025-02-13 19:13:12</t>
+          <t>서학개미(미국 주식 개인 투자자)가 많이 투자한 미국 주식을 담은 상장지수펀드(ETF)가 잇달아 손실 구간에 진입했다. 도널드 트럼프 .. 조선비즈 | 2025-02-26 09:55:13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>이코노미스트</t>
+          <t>조선비즈</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-02-13 19:13:12</t>
+          <t>2025-02-26 09:55:13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000072715</t>
+          <t>https://n.news.naver.com/mnews/article/366/0001056779</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>대신증권, 인수금융 신설…이중헌 전 DS證 본부장 영입</t>
+          <t>‘해킹 여파’ 20% 하락한 4대 코인…“대량 매도 움직임 없어…단기 영향” [투자360]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대신증권이 인수금융 부서를 신설하고 이중헌 전 DS증권 IB본부장을 영입해 부서를 이끌게 할 것으로 알려졌다. 13일 증권업계에 따르면.. 데일리안 | 2025-02-13 18:57:11</t>
+          <t>비트코인·이더리움·리플·솔라나 하락률 -19.94% 과거 DMM·폴리네트워크 해킹 대비 큰 변동성 공포탐욕지수 21…6개월만에 ‘극심한.. 헤럴드경제 | 2025-02-26 09:55:11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>데일리안</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-02-13 18:57:11</t>
+          <t>2025-02-26 09:55:11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002923148</t>
+          <t>https://n.news.naver.com/mnews/article/016/0002434274</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"美 증시는 결국 오르더라"… 美 ETF 사모으는 개미</t>
+          <t>"엇갈리는 SK하이닉스…'HBM 소외' 삼전부터 챙겨"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>국내 개인 투자자들이 올해에도 미국 증시에 투자하는 상장지수펀드(ETF)를 적극 사들이고 있다. 가파른 상승 곡선을 그리던 미국 증시가.. 파이낸셜뉴스 | 2025-02-13 18:40:17</t>
+          <t>고대역폭메모리(HBM) 훈풍 관련 수혜를 삼성전자가 제대로 받지 못했단 의견이 나왔다. 26일 한국경제TV에서 나민호 야천투자연구소 소.. 한국경제TV | 2025-02-26 09:55:07</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스</t>
+          <t>한국경제TV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-02-13 18:40:17</t>
+          <t>2025-02-26 09:55:07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005308161</t>
+          <t>https://n.news.naver.com/mnews/article/215/0001199883</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>한화의 날… 잘나가는 자회사 덕에 신고가 행진</t>
+          <t>일론 머스크 때문에?…테슬라 시총 1兆달러 또 깨졌다</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>한화 주가가 고공행진하고 있다. 한화에어로스페이스, 한화솔루션 등 자회사 지분 가치가 늘고 지난해 4·4분기에도 연결 자회사 실적 호전.. 파이낸셜뉴스 | 2025-02-13 18:40:15</t>
+          <t>테슬라 시가총액이 유럽에서의 판매량 급감 소식에 1조 달러(약 1432조 원) 아래로 주저앉았다. 주요 외신은 유럽 현지에서 일론 머스.. 서울경제 | 2025-02-26 09:46:11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>파이낸셜뉴스</t>
+          <t>서울경제</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-02-13 18:40:15</t>
+          <t>2025-02-26 09:46:11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005308160</t>
+          <t>https://n.news.naver.com/mnews/article/011/0004454898</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>우량주 vs 테마중심…"로봇ETF 특성별 투자를"</t>
+          <t>[속보] 코스피, 대기 모드…버블붕괴 vs 추가랠리 '분수령'</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>지난해 인공지능(AI)에 이어 올해 로봇 관련 종목들이 부상하면서 관련 산업에 투자할 수 있는 상장지수펀드(ETF)에도 관심이 쏠리고 .. 서울경제 | 2025-02-13 18:33:16</t>
+          <t>코스피가 보합권에서 등락중이다. 우리시간으로 27일 새벽에 나올 엔비디아 실적 발표를 대기하며 관망세다. 실적 결과 보다는 향후 실적 .. 한국경제TV | 2025-02-26 09:44:16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>한국경제TV</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-02-13 18:33:16</t>
+          <t>2025-02-26 09:44:16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004450319</t>
+          <t>https://n.news.naver.com/mnews/article/215/0001199872</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>日 혼다·닛산 합병 무산…새로운 생존전략 나올까</t>
+          <t>우성금속, 글로벌 기업 수주 급증에 OP 10배↑…성안 품고 희토류 메탈바 시장 공략</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>합병을 통해 세계 최고의 자동차 기업으로 거듭나려 했던 일본 혼다와 닛산자동차의 합병이 무산됐다. 양사는 미국 테슬라와 중국 비야디(B.. 아시아경제 | 2025-02-13 18:27:16</t>
+          <t>오랜 기간 축적한 기술력과 신뢰를 바탕으로 희토류 제련 분야에서 독보적인 경쟁력을 확보해 고품질 희토류 제품을 생산할 계획입니다. 이를.. 파이낸셜뉴스 | 2025-02-26 09:41:14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>아시아경제</t>
+          <t>파이낸셜뉴스</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-02-13 18:27:16</t>
+          <t>2025-02-26 09:41:14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005546373</t>
+          <t>https://n.news.naver.com/mnews/article/014/0005313527</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>'트럼프 충격'은 오히려 기회…고수가 저가 매수에 나선 투자처는 [이시은의 투자고수를 찾아서]</t>
+          <t>'삼성전자 인수설'에 클래시스 7%대 강세…장중 최고가 경신</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>※ ‘이시은의 투자고수를 찾아서’는 이시은 한국경제신문 기자가 매주 수요일 한경닷컴 사이트에 게재하는 ‘회원 전용’ 재테크 전문 콘텐츠.. 한국경제 | 2025-02-13 18:22:30</t>
+          <t>삼성전자 인수설에 미용 의료기기 업체 클래시스의 주가가 장중 사상 최고가를 갈아치웠다. 26일 한국거래소에 따르면 오전 9시 26분 현.. 뉴시스 | 2025-02-26 09:37:26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>한국경제</t>
+          <t>뉴시스</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-02-13 18:22:30</t>
+          <t>2025-02-26 09:37:26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/015/0005094006</t>
+          <t>https://n.news.naver.com/mnews/article/003/0013088615</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>美 안정적 주거상품에 큰손들 저가매수 '눈독'</t>
+          <t>창업주 별세 후 급등한 동진쎄미켐…이튿날엔 약세</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>이 기사는 2025년02월13일 16시20분에 마켓인 프리미엄 콘텐츠로 선공개 되었습니다. 글로벌 큰손들은 미국 주거용부동산 멀티패밀리.. 이데일리 | 2025-02-13 18:21:11</t>
+          <t>동진쎄미켐 주가가 26일 장 초반 약세다. 시장이 별세한 창업주 이부섭 회장의 차남 승계가 유력하다는 해석에 무게를 실으면서 전날 올랐.. 한국경제 | 2025-02-26 09:22:14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>이데일리</t>
+          <t>한국경제</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-02-13 18:21:11</t>
+          <t>2025-02-26 09:22:14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005943433</t>
+          <t>https://n.news.naver.com/mnews/article/015/0005099360</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>국내 경쟁 넘어 글로벌로…업계 1위 앞둔 한투證 김성환의 꿈</t>
+          <t>ETF 급성장 속 펀드매니저 승률 높이려면?… 단순한 목표 설정하라[기고]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>“증권업 내 경쟁구도를 벗어나 압도적이며 완전히 차별화된 1위를 목표로 한다.” 김성환 한국투자증권 대표이사 사장 취임 1년을 맞은 한.. 이데일리 | 2025-02-13 18:05:10</t>
+          <t>■ 기고 - 정상진 한국투자신탁운용 주식운용본부장 전 세계적으로 상장지수펀드(ETF) 시장이 급성장하고 있다. 최근 들어서는 유럽마저 .. 문화일보 | 2025-02-26 09:16:17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>이데일리</t>
+          <t>문화일보</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-02-13 18:05:10</t>
+          <t>2025-02-26 09:16:17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005943419</t>
+          <t>https://n.news.naver.com/mnews/article/021/0002692801</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>한국 떠나 '플립'하는 스타트업…벤처 혹한기 돌파구일까[마켓인]</t>
+          <t>"한번 더 믿어보자" 한두희 한화證 대표 연임한다…임추위 재선임 추천</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>이 기사는 2025년02월13일 16시56분에 마켓인 프리미엄 콘텐츠로 선공개 되었습니다. 국내 벤처투자 시장 침체가 장기화되면서 법인.. 이데일리 | 2025-02-13 17:57:14</t>
+          <t>2년 임기 만료를 앞두고 있는 한두희 한화투자증권(003530) 대표의 연임이 사실상 확정됐다. 부동산 프로젝트 파이낸싱(PF) 충당금.. 뉴스1 | 2025-02-26 09:12:23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>이데일리</t>
+          <t>뉴스1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-02-13 17:57:14</t>
+          <t>2025-02-26 09:12:23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005943412</t>
+          <t>https://n.news.naver.com/mnews/article/421/0008098171</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>미국서 양자컴 올랐는데 국내 ETF는 오히려 하락?…구성 종목 잘 살펴야</t>
+          <t>'5兆 대어' 테일러메이드 인수전 막 올랐다...RFP발송 [fn마켓워치]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>디웨이브퀀텀 13%·양자컴ETF ?1% 유동시가총액 작아 종목 편입 안돼 3월 초 지수 리밸런싱 후 변화 예상 미국 증시에서 양자컴퓨터.. 매일경제 | 2025-02-13 17:55:28</t>
+          <t>몸 값이 5조원 규모로 추정되는 골프 브랜드 테일러메이드 M&amp;A(인수합병) 막이 올랐다. 테일러메이드의 대주주인 국내 사모펀드(PEF).. 파이낸셜뉴스 | 2025-02-26 09:06:22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>파이낸셜뉴스</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-02-13 17:55:28</t>
+          <t>2025-02-26 09:06:22</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005443521</t>
+          <t>https://n.news.naver.com/mnews/article/014/0005313488</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>훨훨 나는 금 ETF…저평가 은 ETF도 '반짝'</t>
+          <t>KB證 “양자컴퓨터, 5년 내로 상용화 시작될 것”</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>골드바 품귀 현상마저 일으킨 금값 상승이 금 현물 상장지수펀드(ETF)를 넘어 또 다른 안전자산인 ‘은’ 투자에 대한 관심도 높이고 있.. 서울경제 | 2025-02-13 17:54:17</t>
+          <t>KB증권은 26일 양자컴퓨터 시장이 오는 2030년 전후인 향후 5년 내로 상용화가 시작될 것이라는 전망을 내놨다. 최근 IBM과 구글.. 조선비즈 | 2025-02-26 08:53:09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>서울경제</t>
+          <t>조선비즈</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-02-13 17:54:17</t>
+          <t>2025-02-26 08:53:09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004450301</t>
+          <t>https://n.news.naver.com/mnews/article/366/0001056742</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>한미 디커플링 가속…"증권·건설 기회" [박해린의 마켓톡톡]</t>
+          <t>iM證 “현대건설, 서울-세종 고속도로 붕괴로 350억 비용 추정”</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>오늘 증시 이슈 짚어보는 박해린의 마켓톡톡 시간입니다. 간밤 발표된 미국 1월 소비자물가지수(CPI)가 시장 예상치를 상회하며 충격을 .. 한국경제TV | 2025-02-13 17:54:04</t>
+          <t>iM증권은 경기 안성 고속도로 공사장 사고로 현대건설이 최고 2000억원의 비용을 반영할 것이라고 봤다. 현대건설은 해당 고속도로 시공.. 조선비즈 | 2025-02-26 08:52:09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>한국경제TV</t>
+          <t>조선비즈</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-02-13 17:54:04</t>
+          <t>2025-02-26 08:52:09</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001198436</t>
+          <t>https://n.news.naver.com/mnews/article/366/0001056741</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"추정치 6배 벗어난 실적" 발표이후 요동치는 주가</t>
+          <t>‘동학개미’의 귀환…韓주식형 ETF 투자액, 1년 만에 해외 추월 [투자360]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>한화솔루션 깜짝실적 발표에 주가 14% 오르다 다음날 7%↓ SK가스도 발표 이튿날 13% 쑥 상장 기업의 지난해 4분기 실적 발표가 .. 매일경제 | 2025-02-13 17:53:48</t>
+          <t>2월 韓주식형 ETF 순자산 2.8조 증가…해외 ETF 2.32배 韓주식형 ETF 순자산 증감액, 작년 2월 이후 처음 해외 넘어서 올.. 헤럴드경제 | 2025-02-26 08:48:15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-02-13 17:53:48</t>
+          <t>2025-02-26 08:48:15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005443507</t>
+          <t>https://n.news.naver.com/mnews/article/016/0002434185</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>딥시크가 깨운 중학개미 15개월만에 순매수 전환</t>
+          <t>美 경기둔화 신호 커져도 버티는 코스피…투심 위축 현실화될까 [투자360]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>이달 中주식 473만弗 '사자' SMIC·알리바바 등 차익실현 AI·로봇관련주 대거 사들여 생성형 인공지능(AI) 딥시크의 등장 이후 .. 매일경제 | 2025-02-13 17:52:10</t>
+          <t>소비심리 악화에 美증시 기술주 내리막길…테슬라 8.4% 급락 엔비디아 실적발표 하루 앞두고 변동성 주의보…코스피 거래대금 감소세 25일.. 헤럴드경제 | 2025-02-26 08:44:10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>매일경제</t>
+          <t>헤럴드경제</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-02-13 17:52:10</t>
+          <t>2025-02-26 08:44:10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005443492</t>
+          <t>https://n.news.naver.com/mnews/article/016/0002434180</t>
         </is>
       </c>
     </row>
